--- a/otres/db.xlsx
+++ b/otres/db.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyva-my.sharepoint.com/personal/a_fedosov_hyva_com/Documents/Desktop/dataset/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9AE0E8B8748FC2903F7ED2E3F7D07EAE8B6453B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4939C0E3-A0A1-4CAD-8EF8-B9C11C6758A6}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_75707CCDF2657E2E56F9F64BF09BEF0D96925DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1B7C4B-5B66-443F-8DA6-C4DE03433A10}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Упражнение</t>
   </si>
@@ -37,6 +49,9 @@
     <t>Повторения</t>
   </si>
   <si>
+    <t>Объём</t>
+  </si>
+  <si>
     <t>Присед со штангой</t>
   </si>
   <si>
@@ -52,23 +67,65 @@
     <t>Жим ногами</t>
   </si>
   <si>
-    <t>Жим лёжа</t>
+    <t>Становая тяга</t>
+  </si>
+  <si>
+    <t>Жим лёжа с грифом</t>
   </si>
   <si>
     <t>Грудь</t>
+  </si>
+  <si>
+    <t>Жим лёжа с гантелями</t>
+  </si>
+  <si>
+    <t>Сведение рук на тренажёре</t>
+  </si>
+  <si>
+    <t>Жим гантелей вверх сидя</t>
+  </si>
+  <si>
+    <t>Плечи</t>
+  </si>
+  <si>
+    <t>Развод гантелей стоя</t>
+  </si>
+  <si>
+    <t>Широкая тяга на крылья</t>
+  </si>
+  <si>
+    <t>Спина</t>
+  </si>
+  <si>
+    <t>Тяга Т-грифа</t>
+  </si>
+  <si>
+    <t>Тяга горизонтального блока</t>
+  </si>
+  <si>
+    <t>Сведение рук лёжа</t>
+  </si>
+  <si>
+    <t>Движение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -113,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -125,13 +182,12 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,22 +493,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,81 +519,331 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="E2" s="4">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
-        <v>70</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:G24" si="0">E2*F2</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="5">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" s="5">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4">
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="E8" s="5">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="E11" s="5">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E5" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4">
+    </row>
+    <row r="13" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="E13" s="5">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="E14" s="6">
         <v>50</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F14" s="6">
         <v>8</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8">
+        <v>45</v>
+      </c>
+      <c r="F15" s="8">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/otres/db.xlsx
+++ b/otres/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyva-my.sharepoint.com/personal/a_fedosov_hyva_com/Documents/Desktop/dataset/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_75707CCDF2657E2E56F9F64BF09BEF0D96925DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1B7C4B-5B66-443F-8DA6-C4DE03433A10}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_75707CCDF2657E2E56F9F64BF09BEF0D96925DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDAE9667-D21B-4B4E-A8A8-110769E7F96E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,14 +632,14 @@
       </c>
       <c r="C7" s="3"/>
       <c r="E7" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -654,11 +654,11 @@
         <v>36</v>
       </c>
       <c r="F8" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -725,11 +725,11 @@
         <v>10</v>
       </c>
       <c r="F12" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">

--- a/otres/db.xlsx
+++ b/otres/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyva-my.sharepoint.com/personal/a_fedosov_hyva_com/Documents/Desktop/dataset/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_75707CCDF2657E2E56F9F64BF09BEF0D96925DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDAE9667-D21B-4B4E-A8A8-110769E7F96E}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_75707CCDF2657E2E56F9F64BF09BEF0D96925DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F5073CF-0549-42FC-8DC4-481C9630D3D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Упражнение</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Hack присед</t>
   </si>
   <si>
-    <t>Болгарская тяга</t>
-  </si>
-  <si>
     <t>Жим ногами</t>
   </si>
   <si>
@@ -103,10 +100,19 @@
     <t>Тяга горизонтального блока</t>
   </si>
   <si>
-    <t>Сведение рук лёжа</t>
-  </si>
-  <si>
     <t>Движение</t>
+  </si>
+  <si>
+    <t>Румынская тяга</t>
+  </si>
+  <si>
+    <t>Разгибания ног (тренажёр)</t>
+  </si>
+  <si>
+    <t>Сгибание ног (тренажёр)</t>
+  </si>
+  <si>
+    <t>Сведение гантелей лёжа</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J10" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -547,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G24" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G17" si="0">E2*F2</f>
         <v>420</v>
       </c>
     </row>
@@ -572,22 +578,26 @@
     </row>
     <row r="4" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5">
+        <v>70</v>
+      </c>
+      <c r="F4" s="5">
+        <v>9</v>
+      </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -606,7 +616,7 @@
     </row>
     <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -616,116 +626,118 @@
         <v>100</v>
       </c>
       <c r="F6" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="E7" s="4">
-        <v>60</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4</v>
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5">
+        <v>12</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="5">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="4">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8">
-        <v>10</v>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="E10" s="5">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5">
+        <v>12</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="E11" s="5">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="6">
+        <v>46</v>
+      </c>
+      <c r="F11" s="6">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8">
         <v>10</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="E12" s="5">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5">
-        <v>12</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
@@ -734,113 +746,124 @@
     </row>
     <row r="13" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="5">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>624</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="E15" s="5">
+        <v>52</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="E16" s="6">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="E14" s="6">
-        <v>50</v>
-      </c>
-      <c r="F14" s="6">
-        <v>8</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8">
         <v>45</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F17" s="8">
         <v>7</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/otres/db.xlsx
+++ b/otres/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyva-my.sharepoint.com/personal/a_fedosov_hyva_com/Documents/Desktop/dataset/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_75707CCDF2657E2E56F9F64BF09BEF0D96925DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F5073CF-0549-42FC-8DC4-481C9630D3D1}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_75707CCDF2657E2E56F9F64BF09BEF0D96925DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7983AC58-3B3A-4448-B243-8AE606DDBA8C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Упражнение</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Сведение гантелей лёжа</t>
+  </si>
+  <si>
+    <t>Жим сидя на тренажёре</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="I10:J10"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G17" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G18" si="0">E2*F2</f>
         <v>420</v>
       </c>
     </row>
@@ -783,63 +786,78 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E15" s="5">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>624</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="E17" s="6">
         <v>50</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>8</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>45</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>7</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G19" s="5"/>
@@ -864,6 +882,9 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/otres/db.xlsx
+++ b/otres/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyva-my.sharepoint.com/personal/a_fedosov_hyva_com/Documents/Desktop/dataset/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_75707CCDF2657E2E56F9F64BF09BEF0D96925DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7983AC58-3B3A-4448-B243-8AE606DDBA8C}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="11_75707CCDF2657E2E56F9F64BF09BEF0D96925DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92BFE12-4B3A-43EF-A121-CD793E87AECA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Упражнение</t>
   </si>
@@ -116,12 +116,39 @@
   </si>
   <si>
     <t>Жим сидя на тренажёре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жим лёжа машина Смита под наклоном </t>
+  </si>
+  <si>
+    <t>Развод кабелей стоя</t>
+  </si>
+  <si>
+    <t>Развод</t>
+  </si>
+  <si>
+    <t>Жим</t>
+  </si>
+  <si>
+    <t>Тяга</t>
+  </si>
+  <si>
+    <t>Сведение</t>
+  </si>
+  <si>
+    <t>Присед</t>
+  </si>
+  <si>
+    <t>Обратные махи на тренажёре</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -197,6 +224,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,15 +533,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
@@ -518,7 +549,7 @@
     <col min="6" max="7" width="14.109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -549,6 +580,9 @@
         <v>7</v>
       </c>
       <c r="C2" s="3"/>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E2" s="4">
         <v>70</v>
       </c>
@@ -556,11 +590,11 @@
         <v>6</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G18" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G21" si="0">E2*F2</f>
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -568,6 +602,9 @@
         <v>7</v>
       </c>
       <c r="C3" s="3"/>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" s="5">
         <v>50</v>
       </c>
@@ -579,7 +616,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -587,6 +624,9 @@
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="5">
         <v>70</v>
       </c>
@@ -598,7 +638,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -606,6 +646,9 @@
         <v>7</v>
       </c>
       <c r="C5" s="3"/>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="4">
         <v>100</v>
       </c>
@@ -617,7 +660,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -625,6 +668,9 @@
         <v>7</v>
       </c>
       <c r="C6" s="3"/>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="5">
         <v>100</v>
       </c>
@@ -636,7 +682,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -654,7 +700,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -672,7 +718,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -680,18 +726,21 @@
         <v>12</v>
       </c>
       <c r="C9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="4">
         <v>60</v>
       </c>
       <c r="F9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -699,18 +748,21 @@
         <v>12</v>
       </c>
       <c r="C10" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="5">
         <v>36</v>
       </c>
       <c r="F10" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -718,24 +770,30 @@
         <v>12</v>
       </c>
       <c r="C11" s="3"/>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E11" s="6">
         <v>46</v>
       </c>
       <c r="F11" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E12" s="8">
         <v>12</v>
       </c>
@@ -747,126 +805,195 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="9">
+        <v>41.4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>331.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="E13" s="5">
-        <v>32</v>
-      </c>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="3"/>
+      <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E14" s="5">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
         <v>12</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5">
+      <c r="D16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="5">
         <v>25</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>10</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="E16" s="5">
+      <c r="C18" s="3"/>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5">
         <v>52</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F18" s="5">
         <v>12</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="E17" s="6">
+      <c r="C19" s="3"/>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="6">
         <v>50</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F19" s="6">
         <v>8</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="20" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="8">
+      <c r="D20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="8">
         <v>45</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F20" s="8">
         <v>7</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="5"/>
+    <row r="21" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="8">
+        <v>39</v>
+      </c>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G22" s="5"/>
@@ -885,6 +1012,12 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/otres/db.xlsx
+++ b/otres/db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyva-my.sharepoint.com/personal/a_fedosov_hyva_com/Documents/Desktop/dataset/proj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.fedosov\OneDrive - Hyva Global\Desktop\dataset\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_75707CCDF2657E2E56F9F64BF09BEF0D96925DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92BFE12-4B3A-43EF-A121-CD793E87AECA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC8C68-F01D-4AA4-B33C-7038DDD7EEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>Сведение гантелей лёжа</t>
   </si>
   <si>
-    <t>Жим сидя на тренажёре</t>
-  </si>
-  <si>
     <t xml:space="preserve">Жим лёжа машина Смита под наклоном </t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Обратные махи на тренажёре</t>
+  </si>
+  <si>
+    <t>Жим над головой сидя на тренажёре</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4">
         <v>70</v>
@@ -603,7 +603,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5">
         <v>50</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5">
         <v>70</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4">
         <v>100</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5">
         <v>100</v>
@@ -727,7 +727,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4">
         <v>60</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5">
         <v>36</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6">
         <v>46</v>
@@ -792,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8">
         <v>12</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="13" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="9">
         <v>41.4</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5">
         <v>32</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="5">
         <v>10</v>
@@ -872,34 +872,34 @@
     </row>
     <row r="16" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F16" s="5">
         <v>10</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="10">
         <v>7.5</v>
@@ -921,7 +921,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5">
         <v>52</v>
@@ -943,7 +943,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="6">
         <v>50</v>
@@ -964,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="8">
         <v>45</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="21" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>19</v>
